--- a/ig/sd-add-valeur-CS-eclaire-reglementation-precision/CodeSystem-eclaire-regulation-code-code-system.xlsx
+++ b/ig/sd-add-valeur-CS-eclaire-reglementation-precision/CodeSystem-eclaire-regulation-code-code-system.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T16:07:33+00:00</t>
+    <t>2023-10-26T13:44:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-valeur-CS-eclaire-reglementation-precision/CodeSystem-eclaire-regulation-code-code-system.xlsx
+++ b/ig/sd-add-valeur-CS-eclaire-reglementation-precision/CodeSystem-eclaire-regulation-code-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T13:44:10+00:00</t>
+    <t>2023-10-26T14:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
